--- a/乐而乐需求文档/系统漏洞与需求汇总7.1反馈(2)(1).xlsx
+++ b/乐而乐需求文档/系统漏洞与需求汇总7.1反馈(2)(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24090" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="5" r:id="rId1"/>
@@ -823,11 +823,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -866,46 +866,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,19 +882,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,11 +904,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -973,31 +995,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,13 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,31 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,13 +1071,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1107,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,43 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,13 +1155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,6 +1239,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1259,47 +1298,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1330,9 +1328,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,10 +1344,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,16 +1356,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,115 +1374,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1897,7 +1897,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -5471,8 +5471,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/乐而乐需求文档/系统漏洞与需求汇总7.1反馈(2)(1).xlsx
+++ b/乐而乐需求文档/系统漏洞与需求汇总7.1反馈(2)(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24090" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="22500" windowHeight="11235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="5" r:id="rId1"/>
@@ -794,7 +794,111 @@
     <t>省市区，备注，送货人，送货人电话，品类，分类，经纬度，银行卡信息，财务信息，车型，客服信息，对接人信息，imei,图片（可以查看的端），车牌，微信图片，授权码（不显示），常用名，头像，说明，座机，首字母，邮箱，经营品牌，品种，说明</t>
   </si>
   <si>
-    <t>商品增加是否积分，积多少分，订货地区，是否可以跨区订货，商品类型（散货，无条码，有条码），品牌，是否可退换货，是否是预售商品，预售时间，限购，是否秒杀商品，秒杀价，秒杀时间，秒杀数量，是否停止销售，急单码，供应商确定，富文本款（先用图片），件价，最小起配价，商品名称首字母，有无图片，是否可拼货，规格，产地，价格1，价格2，价格3，业务值，是否淘汰，是否新品，新品期，多供应商标志，是否亏本，生产日期，有效期，历史价格，库存，装箱数，虚拟数，水印，是否参与综合，同系列，整系列，说明，备注，是否随机配货，同码，整码，拼码</t>
+    <r>
+      <t>商品增加是否积分，积多少分，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订货地区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，是否可以跨区订货，商品类型（散货，无条码，有条码），品牌，是否可退换货，是否是预售商品，预售时间，限购，是否秒杀商品，秒杀价，秒杀时间，秒杀数量，是否停止销售，急单码，供应商确定，富文本款（先用图片），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>件价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小起配价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，商品名称首字母，有无图片，是否可拼货，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，产地，价格1，价格2，价格3，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，是否淘汰，是否新品，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新品期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，多供应商标志，是否亏本，生产日期，有效期，历史价格，库存，装箱数，虚拟数，水印，是否参与综合，同系列，整系列，说明，备注，是否随机配货，同码，整码，拼码</t>
+    </r>
   </si>
   <si>
     <t>图片，是否显示，说明，备注，上级分类</t>
@@ -823,13 +927,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,10 +971,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,9 +986,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,15 +1016,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +1032,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,22 +1047,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,27 +1085,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,8 +1100,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="20"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1023,7 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1145,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,133 +1283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,13 +1307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,16 +1350,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,35 +1397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,8 +1430,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,10 +1454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,133 +1466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1901,18 +2011,18 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="92.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.2477876106195" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.12389380530973" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.6283185840708" style="2" customWidth="1"/>
+    <col min="4" max="4" width="92.3716814159292" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="75.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="75.5044247787611" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="50.25" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="51" spans="1:5">
+    <row r="2" ht="50.25" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +2056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" ht="51" spans="1:5">
+    <row r="3" ht="50.25" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1963,7 +2073,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" ht="76.5" spans="1:6">
+    <row r="4" ht="75.4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +2091,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="25.15" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="50.25" spans="1:5">
       <c r="A6" s="20"/>
       <c r="B6" s="2">
         <v>9</v>
@@ -2013,7 +2123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="25.15" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2030,7 +2140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" ht="25.15" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2173,7 @@
       </c>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" ht="25.15" spans="1:6">
       <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
@@ -2081,7 +2191,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="25.15" spans="1:5">
       <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
@@ -2098,7 +2208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="25.15" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +2225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="25.15" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="25.15" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -2149,7 +2259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="25.15" spans="1:5">
       <c r="A15" s="20"/>
       <c r="B15" s="2">
         <v>44</v>
@@ -2164,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="51" spans="1:5">
+    <row r="16" ht="50.25" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" ht="25.15" spans="1:6">
       <c r="A18" s="20"/>
       <c r="B18" s="2">
         <v>13</v>
@@ -2209,7 +2319,7 @@
       </c>
       <c r="F18"/>
     </row>
-    <row r="19" ht="51" spans="1:5">
+    <row r="19" ht="50.25" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2336,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="25.15" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2243,7 +2353,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" ht="51" spans="1:5">
+    <row r="21" ht="50.25" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" ht="51" spans="1:6">
+    <row r="22" ht="50.25" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2388,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="25.15" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +2405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" ht="51" spans="1:6">
+    <row r="24" ht="50.25" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2315,7 +2425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="50.25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2332,7 +2442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" ht="76.5" spans="1:5">
+    <row r="26" ht="75.4" spans="1:5">
       <c r="A26" s="20"/>
       <c r="B26" s="2">
         <v>45</v>
@@ -2347,7 +2457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" ht="51" spans="1:6">
+    <row r="27" ht="50.25" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2367,7 +2477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="25.15" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -2384,7 +2494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" ht="25.15" spans="1:5">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
@@ -2401,7 +2511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" ht="51" spans="1:5">
+    <row r="30" ht="50.25" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -2418,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" ht="25.15" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2546,7 @@
       </c>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" ht="51" spans="1:5">
+    <row r="32" ht="50.25" spans="1:5">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
@@ -2453,7 +2563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" ht="51" spans="1:5">
+    <row r="33" ht="50.25" spans="1:5">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2470,7 +2580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" ht="25.15" spans="1:5">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -2487,7 +2597,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" ht="25.15" spans="1:6">
       <c r="A35" s="21" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2615,7 @@
       </c>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" ht="50.25" spans="1:6">
       <c r="A36" s="21" t="s">
         <v>8</v>
       </c>
@@ -2525,7 +2635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" ht="25.15" spans="1:5">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -2542,7 +2652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" ht="25.15" spans="1:5">
       <c r="A38" s="20"/>
       <c r="B38" s="2">
         <v>46</v>
@@ -2557,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="51" spans="1:5">
+    <row r="39" ht="50.25" spans="1:5">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" ht="50.25" spans="1:6">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2623,19 +2733,19 @@
       <selection activeCell="C1" sqref="A$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="3.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="89.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.6283185840708" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.2477876106195" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.12389380530973" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.6283185840708" style="2" customWidth="1"/>
+    <col min="6" max="6" width="89.1238938053097" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.3716814159292" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" ht="25.15" spans="2:6">
       <c r="B1" s="1"/>
       <c r="D1" s="2">
         <v>1</v>
@@ -2647,7 +2757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="25.15" spans="1:6">
       <c r="A2" s="5"/>
       <c r="D2" s="2">
         <v>2</v>
@@ -2659,7 +2769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="50.25" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
@@ -2675,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="50.25" spans="1:6">
       <c r="A4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -2690,7 +2800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="1:6">
+    <row r="5" ht="50.25" spans="1:6">
       <c r="A5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -2705,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="51" spans="1:6">
+    <row r="6" ht="50.25" spans="1:6">
       <c r="A6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -2720,7 +2830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" ht="25.15" spans="3:6">
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2734,7 +2844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="51" spans="1:6">
+    <row r="8" ht="50.25" spans="1:6">
       <c r="A8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -2749,7 +2859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" ht="76.5" spans="1:6">
+    <row r="9" ht="75.4" spans="1:6">
       <c r="A9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>3</v>
@@ -2764,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" ht="25.15" spans="1:6">
       <c r="A10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -2779,7 +2889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="25.15" spans="1:6">
       <c r="A11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -2794,7 +2904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="25.15" spans="1:6">
       <c r="A12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -2809,7 +2919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" ht="51" spans="1:6">
+    <row r="13" ht="50.25" spans="1:6">
       <c r="A13" s="5"/>
       <c r="D13" s="2">
         <v>13</v>
@@ -2821,7 +2931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="25.15" spans="1:6">
       <c r="A14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2">
@@ -2834,7 +2944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" ht="25.15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="D15" s="2">
@@ -2847,7 +2957,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" ht="25.15" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="D16" s="2">
@@ -2860,7 +2970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="51" spans="1:6">
+    <row r="17" ht="50.25" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="D17" s="2">
@@ -2873,7 +2983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" ht="51" spans="1:6">
+    <row r="18" ht="50.25" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="D18" s="2">
@@ -2886,7 +2996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" ht="50.25" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="D19" s="2">
@@ -2899,7 +3009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="51" spans="2:6">
+    <row r="20" ht="50.25" spans="2:6">
       <c r="B20" s="1"/>
       <c r="D20" s="2">
         <v>20</v>
@@ -2911,7 +3021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" ht="25.15" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="5"/>
@@ -2925,7 +3035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" ht="25.15" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5" t="s">
@@ -2941,7 +3051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" ht="25.15" spans="3:6">
       <c r="C23" s="5" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +3065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" ht="25.15" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="5" t="s">
@@ -2971,7 +3081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" ht="25.15" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
@@ -2987,7 +3097,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" ht="25.15" spans="1:6">
       <c r="A26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>66</v>
@@ -3002,7 +3112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" ht="25.15" spans="1:6">
       <c r="A27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -3017,7 +3127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" ht="25.15" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
@@ -3033,7 +3143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="25.15" spans="1:6">
       <c r="A29" s="5"/>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -3048,7 +3158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" ht="51" spans="1:6">
+    <row r="30" ht="50.25" spans="1:6">
       <c r="A30" s="5"/>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -3063,7 +3173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" ht="25.15" spans="1:6">
       <c r="A31" s="5"/>
       <c r="C31" s="5" t="s">
         <v>8</v>
@@ -3078,7 +3188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="25.15" spans="1:6">
       <c r="A32" s="5"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
@@ -3093,7 +3203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" ht="51" spans="1:6">
+    <row r="33" ht="50.25" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
@@ -3109,7 +3219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" ht="25.15" spans="3:6">
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -3123,7 +3233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" ht="25.15" spans="1:6">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="5" t="s">
@@ -3139,7 +3249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" ht="25.15" spans="1:6">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="5" t="s">
@@ -3155,7 +3265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" ht="25.15" spans="1:6">
       <c r="A37" s="5"/>
       <c r="C37" s="5" t="s">
         <v>3</v>
@@ -3170,7 +3280,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" ht="25.15" spans="1:6">
       <c r="A38" s="5"/>
       <c r="C38" s="5" t="s">
         <v>3</v>
@@ -3185,7 +3295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" ht="25.15" spans="1:6">
       <c r="A39" s="5"/>
       <c r="C39" s="5" t="s">
         <v>3</v>
@@ -3200,7 +3310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" ht="25.15" spans="1:6">
       <c r="A40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>3</v>
@@ -3215,7 +3325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" ht="51" spans="1:6">
+    <row r="41" ht="50.25" spans="1:6">
       <c r="A41" s="5"/>
       <c r="C41" s="5" t="s">
         <v>3</v>
@@ -3230,7 +3340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" ht="50.25" spans="1:6">
       <c r="A42" s="5"/>
       <c r="C42" s="5" t="s">
         <v>3</v>
@@ -3245,7 +3355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" ht="25.15" spans="1:6">
       <c r="A43" s="5"/>
       <c r="C43" s="5" t="s">
         <v>3</v>
@@ -3260,7 +3370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" ht="25.15" spans="1:6">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="5" t="s">
@@ -3276,7 +3386,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" ht="76.5" spans="1:6">
+    <row r="45" ht="75.4" spans="1:6">
       <c r="A45" s="5"/>
       <c r="B45" s="1"/>
       <c r="D45" s="2">
@@ -3289,7 +3399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" ht="25.15" spans="1:6">
       <c r="A46" s="5"/>
       <c r="B46" s="2">
         <v>0</v>
@@ -3307,7 +3417,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" ht="51" spans="1:6">
+    <row r="47" ht="50.25" spans="1:6">
       <c r="A47" s="5"/>
       <c r="B47" s="2">
         <v>0</v>
@@ -3325,7 +3435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" ht="51" spans="1:6">
+    <row r="48" ht="50.25" spans="1:6">
       <c r="A48" s="5"/>
       <c r="B48" s="2">
         <v>0</v>
@@ -3343,7 +3453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" ht="25.15" spans="1:6">
       <c r="A49" s="5"/>
       <c r="B49" s="2">
         <v>0</v>
@@ -3361,7 +3471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" ht="25.15" spans="1:6">
       <c r="A50" s="5"/>
       <c r="B50" s="2">
         <v>0</v>
@@ -3379,7 +3489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" ht="25.15" spans="1:6">
       <c r="A51" s="5"/>
       <c r="B51" s="2">
         <v>0</v>
@@ -3397,7 +3507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" ht="25.15" spans="1:6">
       <c r="A52" s="5"/>
       <c r="B52" s="2">
         <v>0</v>
@@ -3415,7 +3525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" ht="25.15" spans="1:6">
       <c r="A53" s="5"/>
       <c r="B53" s="2">
         <v>0</v>
@@ -3433,7 +3543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="51" spans="1:6">
+    <row r="54" ht="50.25" spans="1:6">
       <c r="A54" s="5"/>
       <c r="B54" s="2">
         <v>0</v>
@@ -3451,7 +3561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" ht="25.15" spans="1:6">
       <c r="A55" s="5"/>
       <c r="B55" s="2">
         <v>0</v>
@@ -3469,7 +3579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" ht="51" spans="1:6">
+    <row r="56" ht="50.25" spans="1:6">
       <c r="A56" s="5"/>
       <c r="C56" s="5" t="s">
         <v>8</v>
@@ -3484,7 +3594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" ht="25.15" spans="1:6">
       <c r="A57" s="5"/>
       <c r="B57" s="2">
         <v>0</v>
@@ -3502,7 +3612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="51" spans="1:6">
+    <row r="58" ht="50.25" spans="1:6">
       <c r="A58" s="5"/>
       <c r="B58" s="2">
         <v>0</v>
@@ -3520,7 +3630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" ht="51" spans="1:6">
+    <row r="59" ht="50.25" spans="1:6">
       <c r="A59" s="5"/>
       <c r="B59" s="2">
         <v>0</v>
@@ -3538,7 +3648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" ht="51" spans="1:6">
+    <row r="60" ht="50.25" spans="1:6">
       <c r="A60" s="5"/>
       <c r="B60" s="2">
         <v>0</v>
@@ -3556,7 +3666,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" ht="25.15" spans="1:6">
       <c r="A61" s="5"/>
       <c r="B61" s="2">
         <v>0</v>
@@ -3574,7 +3684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" ht="25.15" spans="1:6">
       <c r="A62" s="5"/>
       <c r="B62" s="2">
         <v>0</v>
@@ -3592,7 +3702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" ht="25.15" spans="1:6">
       <c r="A63" s="5"/>
       <c r="B63" s="2">
         <v>0</v>
@@ -3610,7 +3720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" ht="25.15" spans="1:6">
       <c r="A64" s="5"/>
       <c r="B64" s="2">
         <v>0</v>
@@ -3628,7 +3738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" ht="51" spans="1:6">
+    <row r="65" ht="50.25" spans="1:6">
       <c r="A65" s="5"/>
       <c r="B65" s="2">
         <v>0</v>
@@ -3646,7 +3756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" ht="25.15" spans="1:6">
       <c r="A66" s="5"/>
       <c r="B66" s="2">
         <v>0</v>
@@ -3664,7 +3774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" ht="102" spans="2:6">
+    <row r="67" ht="125.65" spans="2:6">
       <c r="B67" s="1"/>
       <c r="C67" s="5" t="s">
         <v>11</v>
@@ -3679,7 +3789,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" ht="25.15" spans="1:6">
       <c r="A68" s="5"/>
       <c r="B68" s="2">
         <v>0</v>
@@ -3697,7 +3807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" ht="25.15" spans="2:6">
       <c r="B69" s="2">
         <v>0</v>
       </c>
@@ -3714,7 +3824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" ht="51" spans="3:6">
+    <row r="70" ht="50.25" spans="3:6">
       <c r="C70" s="5" t="s">
         <v>3</v>
       </c>
@@ -3728,7 +3838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" ht="51" spans="1:6">
+    <row r="71" ht="50.25" spans="1:6">
       <c r="A71" s="5"/>
       <c r="B71" s="2">
         <v>0</v>
@@ -3746,7 +3856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" ht="25.15" spans="1:6">
       <c r="A72" s="5"/>
       <c r="B72" s="1"/>
       <c r="C72" s="5" t="s">
@@ -3762,7 +3872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" ht="25.15" spans="2:6">
       <c r="B73" s="2">
         <v>0</v>
       </c>
@@ -3779,7 +3889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" ht="25.15" spans="1:6">
       <c r="A74" s="5"/>
       <c r="B74" s="2">
         <v>0</v>
@@ -3797,7 +3907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" ht="25.15" spans="1:6">
       <c r="A75" s="5"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5" t="s">
@@ -3813,7 +3923,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" ht="25.15" spans="1:6">
       <c r="A76" s="5"/>
       <c r="B76" s="1"/>
       <c r="C76" s="5" t="s">
@@ -3829,7 +3939,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" ht="51" spans="1:6">
+    <row r="77" ht="50.25" spans="1:6">
       <c r="A77" s="5"/>
       <c r="B77" s="2">
         <v>0</v>
@@ -3847,7 +3957,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="76.5" spans="2:6">
+    <row r="78" ht="75.4" spans="2:6">
       <c r="B78" s="1"/>
       <c r="C78" s="5" t="s">
         <v>3</v>
@@ -3862,7 +3972,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" ht="25.15" spans="1:6">
       <c r="A79" s="5"/>
       <c r="B79" s="2">
         <v>0</v>
@@ -3880,7 +3990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" ht="25.15" spans="1:6">
       <c r="A80" s="5"/>
       <c r="B80" s="2">
         <v>0</v>
@@ -3898,7 +4008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" ht="25.15" spans="2:6">
       <c r="B81" s="1"/>
       <c r="C81" s="5" t="s">
         <v>3</v>
@@ -3913,7 +4023,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" ht="25.15" spans="1:6">
       <c r="A82" s="5"/>
       <c r="B82" s="2">
         <v>0</v>
@@ -3931,7 +4041,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" ht="51" spans="1:6">
+    <row r="83" ht="50.25" spans="1:6">
       <c r="A83" s="5"/>
       <c r="B83" s="2">
         <v>0</v>
@@ -3949,7 +4059,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" ht="51" spans="1:6">
+    <row r="84" ht="50.25" spans="1:6">
       <c r="A84" s="5"/>
       <c r="B84" s="2">
         <v>0</v>
@@ -3967,7 +4077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" ht="25.15" spans="1:6">
       <c r="A85" s="5"/>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
@@ -3983,7 +4093,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" ht="25.15" spans="1:6">
       <c r="A86" s="5"/>
       <c r="B86" s="2">
         <v>0</v>
@@ -4001,7 +4111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" ht="25.15" spans="1:6">
       <c r="A87" s="5"/>
       <c r="B87" s="2">
         <v>0</v>
@@ -4019,7 +4129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" ht="25.15" spans="1:6">
       <c r="A88" s="5"/>
       <c r="B88" s="2">
         <v>0</v>
@@ -4037,7 +4147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" ht="51" spans="1:6">
+    <row r="89" ht="50.25" spans="1:6">
       <c r="A89" s="5"/>
       <c r="B89" s="1"/>
       <c r="C89" s="5" t="s">
@@ -4053,7 +4163,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" ht="51" spans="1:6">
+    <row r="90" ht="50.25" spans="1:6">
       <c r="A90" s="5"/>
       <c r="B90" s="2">
         <v>0</v>
@@ -4071,7 +4181,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" ht="51" spans="1:6">
+    <row r="91" ht="50.25" spans="1:6">
       <c r="A91" s="5"/>
       <c r="B91" s="1"/>
       <c r="C91" s="5" t="s">
@@ -4087,7 +4197,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" ht="25.15" spans="1:6">
       <c r="A92" s="5"/>
       <c r="B92" s="1"/>
       <c r="C92" s="5" t="s">
@@ -4103,7 +4213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" ht="51" spans="1:6">
+    <row r="93" ht="50.25" spans="1:6">
       <c r="A93" s="5"/>
       <c r="B93" s="2">
         <v>0</v>
@@ -4121,7 +4231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" ht="51" spans="1:6">
+    <row r="94" ht="50.25" spans="1:6">
       <c r="A94" s="5"/>
       <c r="B94" s="2">
         <v>0</v>
@@ -4139,7 +4249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" ht="51" spans="1:6">
+    <row r="95" ht="50.25" spans="1:6">
       <c r="A95" s="5"/>
       <c r="B95" s="1"/>
       <c r="C95" s="5" t="s">
@@ -4155,7 +4265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" ht="51" spans="1:6">
+    <row r="96" ht="50.25" spans="1:6">
       <c r="A96" s="5"/>
       <c r="B96" s="2">
         <v>0</v>
@@ -4173,7 +4283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" ht="51" spans="1:6">
+    <row r="97" ht="50.25" spans="1:6">
       <c r="A97" s="5"/>
       <c r="B97" s="2">
         <v>0</v>
@@ -4191,7 +4301,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" ht="25.15" spans="1:6">
       <c r="A98" s="5"/>
       <c r="B98" s="1"/>
       <c r="D98" s="2">
@@ -4204,7 +4314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" ht="51" spans="1:6">
+    <row r="99" ht="50.25" spans="1:6">
       <c r="A99" s="5"/>
       <c r="B99" s="2">
         <v>0</v>
@@ -4219,7 +4329,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" ht="25.15" spans="1:6">
       <c r="A100" s="5"/>
       <c r="D100" s="2">
         <v>100</v>
@@ -4231,7 +4341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" ht="76.5" spans="1:6">
+    <row r="101" ht="75.4" spans="1:6">
       <c r="A101" s="5"/>
       <c r="B101" s="1"/>
       <c r="D101" s="2">
@@ -4244,7 +4354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" ht="25.15" spans="2:6">
       <c r="B102" s="2">
         <v>0</v>
       </c>
@@ -4258,7 +4368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" ht="51" spans="1:6">
+    <row r="103" ht="50.25" spans="1:6">
       <c r="A103" s="5"/>
       <c r="B103" s="2">
         <v>0</v>
@@ -4276,7 +4386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" ht="25.15" spans="1:6">
       <c r="A104" s="5"/>
       <c r="B104" s="2">
         <v>0</v>
@@ -4294,7 +4404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" ht="25.15" spans="2:6">
       <c r="B105" s="2">
         <v>0</v>
       </c>
@@ -4311,7 +4421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" ht="51" spans="3:6">
+    <row r="106" ht="50.25" spans="3:6">
       <c r="C106" s="5" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" ht="25.15" spans="1:6">
       <c r="A107" s="5"/>
       <c r="B107" s="1"/>
       <c r="D107" s="2">
@@ -4338,7 +4448,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" ht="51" spans="1:6">
+    <row r="108" ht="50.25" spans="1:6">
       <c r="A108" s="5"/>
       <c r="B108" s="1"/>
       <c r="D108" s="2">
@@ -4351,7 +4461,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" ht="51" spans="1:6">
+    <row r="109" ht="50.25" spans="1:6">
       <c r="A109" s="5"/>
       <c r="B109" s="2">
         <v>0</v>
@@ -4366,7 +4476,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" ht="76.5" spans="1:6">
+    <row r="110" ht="75.4" spans="1:6">
       <c r="A110" s="5"/>
       <c r="B110" s="2">
         <v>0</v>
@@ -4381,7 +4491,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" ht="51" spans="1:6">
+    <row r="111" ht="50.25" spans="1:6">
       <c r="A111" s="5"/>
       <c r="D111" s="2">
         <v>111</v>
@@ -4393,7 +4503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" ht="25.15" spans="1:6">
       <c r="A112" s="5"/>
       <c r="B112" s="2">
         <v>0</v>
@@ -4408,7 +4518,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" ht="25.15" spans="1:6">
       <c r="A113" s="5"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
@@ -4424,7 +4534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" ht="25.15" spans="1:6">
       <c r="A114" s="5"/>
       <c r="B114" s="2">
         <v>0</v>
@@ -4442,7 +4552,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" ht="25.15" spans="1:6">
       <c r="A115" s="5"/>
       <c r="B115" s="2">
         <v>0</v>
@@ -4460,7 +4570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" ht="25.15" spans="1:6">
       <c r="A116" s="5"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
@@ -4476,7 +4586,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" ht="25.15" spans="1:6">
       <c r="A117" s="5"/>
       <c r="B117" s="2">
         <v>0</v>
@@ -4491,7 +4601,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" ht="51" spans="3:6">
+    <row r="118" ht="50.25" spans="3:6">
       <c r="C118" s="5" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" ht="25.15" spans="1:6">
       <c r="A119" s="5"/>
       <c r="B119" s="1"/>
       <c r="C119" s="5" t="s">
@@ -4521,7 +4631,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" ht="25.15" spans="1:6">
       <c r="A120" s="5"/>
       <c r="B120" s="1"/>
       <c r="C120" s="5" t="s">
@@ -4537,7 +4647,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" ht="51" spans="1:6">
+    <row r="121" ht="50.25" spans="1:6">
       <c r="A121" s="5"/>
       <c r="C121" s="5" t="s">
         <v>31</v>
@@ -4552,7 +4662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" ht="25.15" spans="1:6">
       <c r="A122" s="5"/>
       <c r="B122" s="1"/>
       <c r="C122" s="5" t="s">
@@ -4568,7 +4678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" ht="25.15" spans="1:6">
       <c r="A123" s="5"/>
       <c r="C123" s="5" t="s">
         <v>31</v>
@@ -4583,7 +4693,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" ht="25.15" spans="1:6">
       <c r="A124" s="5"/>
       <c r="B124" s="2">
         <v>0</v>
@@ -4601,7 +4711,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" ht="25.15" spans="1:6">
       <c r="A125" s="5"/>
       <c r="B125" s="2">
         <v>0</v>
@@ -4619,7 +4729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" ht="51" spans="1:6">
+    <row r="126" ht="50.25" spans="1:6">
       <c r="A126" s="5"/>
       <c r="C126" s="5" t="s">
         <v>8</v>
@@ -4634,7 +4744,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" ht="25.15" spans="1:6">
       <c r="A127" s="5"/>
       <c r="B127" s="2">
         <v>0</v>
@@ -4652,7 +4762,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" ht="51" spans="1:6">
+    <row r="128" ht="50.25" spans="1:6">
       <c r="A128" s="5"/>
       <c r="C128" s="5" t="s">
         <v>8</v>
@@ -4667,7 +4777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" ht="25.15" spans="1:6">
       <c r="A129" s="5"/>
       <c r="B129" s="2">
         <v>0</v>
@@ -4685,7 +4795,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" ht="51" spans="1:6">
+    <row r="130" ht="50.25" spans="1:6">
       <c r="A130" s="5"/>
       <c r="B130" s="2">
         <v>0</v>
@@ -4703,7 +4813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" ht="25.15" spans="1:6">
       <c r="A131" s="5"/>
       <c r="B131" s="1"/>
       <c r="C131" s="5" t="s">
@@ -4719,7 +4829,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" ht="51" spans="1:6">
+    <row r="132" ht="50.25" spans="1:6">
       <c r="A132" s="5"/>
       <c r="B132" s="2">
         <v>0</v>
@@ -4737,7 +4847,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" ht="50.25" spans="1:6">
       <c r="A133" s="5"/>
       <c r="C133" s="5" t="s">
         <v>8</v>
@@ -4752,7 +4862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" ht="25.15" spans="1:6">
       <c r="A134" s="5"/>
       <c r="B134" s="2">
         <v>0</v>
@@ -4770,7 +4880,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" ht="25.15" spans="1:6">
       <c r="A135" s="5"/>
       <c r="C135" s="5" t="s">
         <v>8</v>
@@ -4785,7 +4895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" ht="25.15" spans="1:6">
       <c r="A136" s="5"/>
       <c r="C136" s="5" t="s">
         <v>8</v>
@@ -4800,7 +4910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" ht="25.15" spans="1:6">
       <c r="A137" s="5"/>
       <c r="B137" s="1"/>
       <c r="C137" s="5" t="s">
@@ -4816,7 +4926,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" ht="51" spans="1:6">
+    <row r="138" ht="50.25" spans="1:6">
       <c r="A138" s="5"/>
       <c r="B138" s="2">
         <v>0</v>
@@ -4834,7 +4944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" ht="51" spans="1:6">
+    <row r="139" ht="50.25" spans="1:6">
       <c r="A139" s="5"/>
       <c r="B139" s="1"/>
       <c r="C139" s="5" t="s">
@@ -4850,7 +4960,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" ht="51" spans="1:6">
+    <row r="140" ht="50.25" spans="1:6">
       <c r="A140" s="5"/>
       <c r="C140" s="5" t="s">
         <v>3</v>
@@ -4865,7 +4975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="3:6">
+    <row r="141" ht="25.15" spans="3:6">
       <c r="C141" s="5" t="s">
         <v>3</v>
       </c>
@@ -4879,7 +4989,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="142" ht="51" spans="3:6">
+    <row r="142" ht="50.25" spans="3:6">
       <c r="C142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +5003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="3:6">
+    <row r="143" ht="25.15" spans="3:6">
       <c r="C143" s="5" t="s">
         <v>3</v>
       </c>
@@ -4907,7 +5017,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="3:6">
+    <row r="144" ht="25.15" spans="3:6">
       <c r="C144" s="5" t="s">
         <v>3</v>
       </c>
@@ -4921,7 +5031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="3:6">
+    <row r="145" ht="25.15" spans="3:6">
       <c r="C145" s="5" t="s">
         <v>3</v>
       </c>
@@ -4935,7 +5045,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="3:6">
+    <row r="146" ht="25.15" spans="3:6">
       <c r="C146" s="5" t="s">
         <v>3</v>
       </c>
@@ -4949,7 +5059,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="3:6">
+    <row r="147" ht="50.25" spans="3:6">
       <c r="C147" s="5" t="s">
         <v>3</v>
       </c>
@@ -4963,7 +5073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="3:6">
+    <row r="148" ht="25.15" spans="3:6">
       <c r="C148" s="5" t="s">
         <v>3</v>
       </c>
@@ -4977,7 +5087,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" ht="51" spans="3:6">
+    <row r="149" ht="50.25" spans="3:6">
       <c r="C149" s="5" t="s">
         <v>3</v>
       </c>
@@ -4991,7 +5101,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="3:6">
+    <row r="150" ht="25.15" spans="3:6">
       <c r="C150" s="5" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5115,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="3:6">
+    <row r="151" ht="25.15" spans="3:6">
       <c r="C151" s="5" t="s">
         <v>3</v>
       </c>
@@ -5019,7 +5129,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" ht="51" spans="3:6">
+    <row r="152" ht="50.25" spans="3:6">
       <c r="C152" s="5" t="s">
         <v>3</v>
       </c>
@@ -5033,7 +5143,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" ht="51" spans="3:6">
+    <row r="153" ht="50.25" spans="3:6">
       <c r="C153" s="5" t="s">
         <v>3</v>
       </c>
@@ -5047,7 +5157,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" ht="51" spans="3:6">
+    <row r="154" ht="50.25" spans="3:6">
       <c r="C154" s="5" t="s">
         <v>3</v>
       </c>
@@ -5061,7 +5171,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="155" ht="51" spans="3:6">
+    <row r="155" ht="50.25" spans="3:6">
       <c r="C155" s="5" t="s">
         <v>3</v>
       </c>
@@ -5075,7 +5185,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" ht="51" spans="3:6">
+    <row r="156" ht="50.25" spans="3:6">
       <c r="C156" s="5" t="s">
         <v>3</v>
       </c>
@@ -5089,7 +5199,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="4:6">
+    <row r="157" ht="25.15" spans="4:6">
       <c r="D157" s="2">
         <v>157</v>
       </c>
@@ -5132,16 +5242,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="1" max="4" width="10.8761061946903" customWidth="1"/>
+    <col min="5" max="5" width="12.8761061946903" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="9.3716814159292" customWidth="1"/>
+    <col min="9" max="9" width="8.87610619469027" customWidth="1"/>
     <col min="10" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="9.3716814159292" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
+    <row r="1" ht="15.75" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>169</v>
       </c>
@@ -5193,7 +5303,7 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" ht="14.25" spans="1:12">
+    <row r="3" ht="15.75" spans="1:12">
       <c r="A3" s="17" t="s">
         <v>181</v>
       </c>
@@ -5223,7 +5333,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
+    <row r="4" ht="15.75" spans="1:12">
       <c r="A4" s="17" t="s">
         <v>189</v>
       </c>
@@ -5351,7 +5461,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" ht="14.25" spans="1:12">
+    <row r="9" ht="15.75" spans="1:12">
       <c r="A9" s="17" t="s">
         <v>213</v>
       </c>
@@ -5472,15 +5582,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="73.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.3716814159292" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.24778761061947" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.7522123893805" style="11" customWidth="1"/>
+    <col min="4" max="4" width="73.8761061946903" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5497,7 +5607,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:4">
+    <row r="2" ht="47.25" spans="1:4">
       <c r="A2" s="14" t="s">
         <v>242</v>
       </c>
@@ -5511,7 +5621,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:4">
+    <row r="3" ht="63" spans="1:4">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="14" t="s">
@@ -5521,7 +5631,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:4">
+    <row r="4" ht="63" spans="1:4">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="14" t="s">
@@ -5531,7 +5641,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" ht="89.25" spans="1:4">
+    <row r="5" ht="91.9" spans="1:4">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="14" t="s">
@@ -5601,18 +5711,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="3.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="89.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.6283185840708" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.2477876106195" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.12389380530973" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.6283185840708" style="2" customWidth="1"/>
+    <col min="6" max="6" width="89.1238938053097" style="3" customWidth="1"/>
     <col min="7" max="7" width="35" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="50.25" spans="1:6">
       <c r="A1" s="5"/>
       <c r="B1" s="1"/>
       <c r="C1" s="5" t="s">
@@ -5628,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="50.25" spans="1:6">
       <c r="A2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -5643,7 +5753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" ht="51" spans="1:6">
+    <row r="3" ht="50.25" spans="1:6">
       <c r="A3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -5658,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="51" spans="1:6">
+    <row r="4" ht="50.25" spans="1:6">
       <c r="A4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -5673,7 +5783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" ht="25.15" spans="3:6">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
@@ -5687,7 +5797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="51" spans="1:6">
+    <row r="6" ht="50.25" spans="1:6">
       <c r="A6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -5702,7 +5812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" ht="76.5" spans="1:6">
+    <row r="7" ht="75.4" spans="1:6">
       <c r="A7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -5717,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" ht="25.15" spans="1:6">
       <c r="A8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -5732,7 +5842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="25.15" spans="1:6">
       <c r="A9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>3</v>
@@ -5747,7 +5857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" ht="25.15" spans="1:6">
       <c r="A10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -5762,7 +5872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" ht="51" spans="4:6">
+    <row r="11" ht="50.25" spans="4:6">
       <c r="D11" s="2">
         <v>11</v>
       </c>
@@ -5773,7 +5883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="25.15" spans="1:6">
       <c r="A12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2">
@@ -5786,7 +5896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="25.15" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2">
@@ -5799,7 +5909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="25.15" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2">
@@ -5812,7 +5922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="1:6">
+    <row r="15" ht="50.25" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="D15" s="2">
@@ -5825,7 +5935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" ht="51" spans="1:6">
+    <row r="16" ht="50.25" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="D16" s="2">
@@ -5838,7 +5948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" ht="50.25" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="D17" s="2">
@@ -5851,7 +5961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" ht="51" spans="1:6">
+    <row r="18" ht="50.25" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="D18" s="2">
@@ -5864,7 +5974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" ht="25.15" spans="2:6">
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -5877,7 +5987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" ht="25.15" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5" t="s">
@@ -5893,7 +6003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" ht="25.15" spans="1:6">
       <c r="A21" s="5"/>
       <c r="C21" s="5" t="s">
         <v>0</v>
@@ -5908,7 +6018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" ht="25.15" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5" t="s">
@@ -5924,7 +6034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" ht="25.15" spans="2:6">
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
         <v>0</v>
@@ -5939,7 +6049,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" ht="25.15" spans="1:6">
       <c r="A24" s="5"/>
       <c r="C24" s="5" t="s">
         <v>66</v>
@@ -5954,7 +6064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" ht="25.15" spans="1:6">
       <c r="A25" s="5"/>
       <c r="C25" s="5" t="s">
         <v>8</v>
@@ -5969,7 +6079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" ht="25.15" spans="1:6">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
@@ -5985,7 +6095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" ht="25.15" spans="1:6">
       <c r="A27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -6000,7 +6110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" ht="51" spans="1:6">
+    <row r="28" ht="50.25" spans="1:6">
       <c r="A28" s="5"/>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -6015,7 +6125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="25.15" spans="1:6">
       <c r="A29" s="5"/>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -6030,7 +6140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" ht="25.15" spans="1:6">
       <c r="A30" s="5"/>
       <c r="C30" s="5" t="s">
         <v>3</v>
@@ -6045,7 +6155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" ht="51" spans="1:6">
+    <row r="31" ht="50.25" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5" t="s">
@@ -6061,7 +6171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="25.15" spans="1:6">
       <c r="A32" s="5"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
@@ -6076,7 +6186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" ht="25.15" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
@@ -6092,7 +6202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" ht="25.15" spans="2:6">
       <c r="B34" s="1"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -6107,7 +6217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" ht="25.15" spans="1:6">
       <c r="A35" s="5"/>
       <c r="C35" s="5" t="s">
         <v>3</v>
@@ -6122,7 +6232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" ht="25.15" spans="1:6">
       <c r="A36" s="5"/>
       <c r="C36" s="5" t="s">
         <v>3</v>
@@ -6137,7 +6247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" ht="25.15" spans="1:6">
       <c r="A37" s="5"/>
       <c r="C37" s="5" t="s">
         <v>3</v>
@@ -6152,7 +6262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" ht="25.15" spans="1:6">
       <c r="A38" s="5"/>
       <c r="C38" s="5" t="s">
         <v>3</v>
@@ -6167,7 +6277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" ht="51" spans="1:6">
+    <row r="39" ht="50.25" spans="1:6">
       <c r="A39" s="5"/>
       <c r="C39" s="5" t="s">
         <v>3</v>
@@ -6182,7 +6292,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" ht="50.25" spans="1:6">
       <c r="A40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>3</v>
@@ -6197,7 +6307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" ht="25.15" spans="1:6">
       <c r="A41" s="5"/>
       <c r="C41" s="5" t="s">
         <v>3</v>
@@ -6212,7 +6322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" ht="25.15" spans="1:6">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="5" t="s">
@@ -6228,7 +6338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" ht="76.5" spans="1:6">
+    <row r="43" ht="75.4" spans="1:6">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="D43" s="2">
@@ -6241,7 +6351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" ht="25.15" spans="1:6">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="D44" s="2">
@@ -6254,7 +6364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" ht="25.15" spans="1:6">
       <c r="A45" s="5"/>
       <c r="D45" s="2">
         <v>45</v>
@@ -6266,7 +6376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" ht="25.15" spans="1:6">
       <c r="A46" s="5"/>
       <c r="B46" s="2">
         <v>0</v>
@@ -6284,7 +6394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" ht="51" spans="1:6">
+    <row r="47" ht="50.25" spans="1:6">
       <c r="A47" s="5"/>
       <c r="B47" s="2">
         <v>0</v>
@@ -6302,7 +6412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" ht="51" spans="1:6">
+    <row r="48" ht="50.25" spans="1:6">
       <c r="A48" s="5"/>
       <c r="B48" s="2">
         <v>0</v>
@@ -6320,7 +6430,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" ht="25.15" spans="1:6">
       <c r="A49" s="5"/>
       <c r="B49" s="2">
         <v>0</v>
@@ -6338,7 +6448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" ht="25.15" spans="1:6">
       <c r="A50" s="5"/>
       <c r="B50" s="2">
         <v>0</v>
@@ -6356,7 +6466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" ht="25.15" spans="1:6">
       <c r="A51" s="5"/>
       <c r="B51" s="2">
         <v>0</v>
@@ -6374,7 +6484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" ht="25.15" spans="1:6">
       <c r="A52" s="5"/>
       <c r="B52" s="2">
         <v>0</v>
@@ -6392,7 +6502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" ht="25.15" spans="1:6">
       <c r="A53" s="5"/>
       <c r="B53" s="2">
         <v>0</v>
@@ -6410,7 +6520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="51" spans="1:6">
+    <row r="54" ht="50.25" spans="1:6">
       <c r="A54" s="5"/>
       <c r="B54" s="2">
         <v>0</v>
@@ -6428,7 +6538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" ht="25.15" spans="1:6">
       <c r="A55" s="5"/>
       <c r="B55" s="2">
         <v>0</v>
@@ -6446,7 +6556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" ht="51" spans="1:6">
+    <row r="56" ht="50.25" spans="1:6">
       <c r="A56" s="5"/>
       <c r="C56" s="5" t="s">
         <v>8</v>
@@ -6461,7 +6571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" ht="25.15" spans="1:6">
       <c r="A57" s="5"/>
       <c r="B57" s="2">
         <v>0</v>
@@ -6479,7 +6589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="51" spans="1:6">
+    <row r="58" ht="50.25" spans="1:6">
       <c r="A58" s="5"/>
       <c r="B58" s="2">
         <v>0</v>
@@ -6497,7 +6607,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" ht="51" spans="1:6">
+    <row r="59" ht="50.25" spans="1:6">
       <c r="A59" s="5"/>
       <c r="B59" s="2">
         <v>0</v>
@@ -6515,7 +6625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" ht="51" spans="1:6">
+    <row r="60" ht="50.25" spans="1:6">
       <c r="A60" s="5"/>
       <c r="B60" s="2">
         <v>0</v>
@@ -6533,7 +6643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" ht="25.15" spans="1:6">
       <c r="A61" s="5"/>
       <c r="B61" s="2">
         <v>0</v>
@@ -6551,7 +6661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" ht="25.15" spans="1:6">
       <c r="A62" s="5"/>
       <c r="B62" s="2">
         <v>0</v>
@@ -6569,7 +6679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" ht="25.15" spans="1:6">
       <c r="A63" s="5"/>
       <c r="B63" s="2">
         <v>0</v>
@@ -6587,7 +6697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" ht="25.15" spans="1:6">
       <c r="A64" s="5"/>
       <c r="B64" s="2">
         <v>0</v>
@@ -6605,7 +6715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" ht="51" spans="1:6">
+    <row r="65" ht="50.25" spans="1:6">
       <c r="A65" s="5"/>
       <c r="B65" s="2">
         <v>0</v>
@@ -6623,7 +6733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" ht="25.15" spans="1:6">
       <c r="A66" s="5"/>
       <c r="B66" s="2">
         <v>0</v>
@@ -6641,7 +6751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" ht="102" spans="2:6">
+    <row r="67" ht="125.65" spans="2:6">
       <c r="B67" s="1"/>
       <c r="C67" s="5" t="s">
         <v>11</v>
@@ -6656,7 +6766,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" ht="25.15" spans="1:6">
       <c r="A68" s="5"/>
       <c r="B68" s="2">
         <v>0</v>
@@ -6674,7 +6784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" ht="25.15" spans="2:6">
       <c r="B69" s="2">
         <v>0</v>
       </c>
@@ -6691,7 +6801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" ht="51" spans="3:6">
+    <row r="70" ht="50.25" spans="3:6">
       <c r="C70" s="5" t="s">
         <v>3</v>
       </c>
@@ -6705,7 +6815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" ht="51" spans="1:6">
+    <row r="71" ht="50.25" spans="1:6">
       <c r="A71" s="5"/>
       <c r="B71" s="2">
         <v>0</v>
@@ -6723,7 +6833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" ht="25.15" spans="1:6">
       <c r="A72" s="5"/>
       <c r="B72" s="1"/>
       <c r="C72" s="5" t="s">
@@ -6739,7 +6849,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" ht="25.15" spans="2:6">
       <c r="B73" s="2">
         <v>0</v>
       </c>
@@ -6756,7 +6866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" ht="25.15" spans="1:6">
       <c r="A74" s="5"/>
       <c r="B74" s="2">
         <v>0</v>
@@ -6774,7 +6884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" ht="25.15" spans="1:6">
       <c r="A75" s="5"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5" t="s">
@@ -6790,7 +6900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" ht="25.15" spans="1:6">
       <c r="A76" s="5"/>
       <c r="B76" s="1"/>
       <c r="C76" s="5" t="s">
@@ -6806,7 +6916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" ht="51" spans="1:6">
+    <row r="77" ht="50.25" spans="1:6">
       <c r="A77" s="5"/>
       <c r="B77" s="2">
         <v>0</v>
@@ -6824,7 +6934,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="76.5" spans="2:6">
+    <row r="78" ht="75.4" spans="2:6">
       <c r="B78" s="1"/>
       <c r="C78" s="5" t="s">
         <v>3</v>
@@ -6839,7 +6949,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" ht="25.15" spans="1:6">
       <c r="A79" s="5"/>
       <c r="B79" s="2">
         <v>0</v>
@@ -6857,7 +6967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" ht="25.15" spans="1:6">
       <c r="A80" s="5"/>
       <c r="B80" s="2">
         <v>0</v>
@@ -6875,7 +6985,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" ht="25.15" spans="2:6">
       <c r="B81" s="1"/>
       <c r="C81" s="5" t="s">
         <v>3</v>
@@ -6890,7 +7000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" ht="25.15" spans="1:6">
       <c r="A82" s="5"/>
       <c r="B82" s="2">
         <v>0</v>
@@ -6908,7 +7018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" ht="51" spans="1:6">
+    <row r="83" ht="50.25" spans="1:6">
       <c r="A83" s="5"/>
       <c r="B83" s="2">
         <v>0</v>
@@ -6926,7 +7036,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" ht="51" spans="1:6">
+    <row r="84" ht="50.25" spans="1:6">
       <c r="A84" s="5"/>
       <c r="B84" s="2">
         <v>0</v>
@@ -6944,7 +7054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" ht="25.15" spans="1:6">
       <c r="A85" s="5"/>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
@@ -6960,7 +7070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" ht="25.15" spans="1:6">
       <c r="A86" s="5"/>
       <c r="B86" s="2">
         <v>0</v>
@@ -6978,7 +7088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" ht="25.15" spans="1:6">
       <c r="A87" s="5"/>
       <c r="B87" s="2">
         <v>0</v>
@@ -6996,7 +7106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" ht="25.15" spans="1:6">
       <c r="A88" s="5"/>
       <c r="B88" s="2">
         <v>0</v>
@@ -7014,7 +7124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" ht="51" spans="1:6">
+    <row r="89" ht="50.25" spans="1:6">
       <c r="A89" s="5"/>
       <c r="B89" s="1"/>
       <c r="C89" s="5" t="s">
@@ -7030,7 +7140,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" ht="51" spans="1:6">
+    <row r="90" ht="50.25" spans="1:6">
       <c r="A90" s="5"/>
       <c r="B90" s="2">
         <v>0</v>
@@ -7048,7 +7158,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" ht="51" spans="1:6">
+    <row r="91" ht="50.25" spans="1:6">
       <c r="A91" s="5"/>
       <c r="B91" s="1"/>
       <c r="C91" s="5" t="s">
@@ -7064,7 +7174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" ht="25.15" spans="1:6">
       <c r="A92" s="5"/>
       <c r="B92" s="1"/>
       <c r="C92" s="5" t="s">
@@ -7080,7 +7190,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" ht="51" spans="1:6">
+    <row r="93" ht="50.25" spans="1:6">
       <c r="A93" s="5"/>
       <c r="B93" s="2">
         <v>0</v>
@@ -7098,7 +7208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" ht="51" spans="1:6">
+    <row r="94" ht="50.25" spans="1:6">
       <c r="A94" s="5"/>
       <c r="B94" s="2">
         <v>0</v>
@@ -7116,7 +7226,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" ht="51" spans="1:6">
+    <row r="95" ht="50.25" spans="1:6">
       <c r="A95" s="5"/>
       <c r="B95" s="1"/>
       <c r="C95" s="5" t="s">
@@ -7132,7 +7242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" ht="51" spans="1:6">
+    <row r="96" ht="50.25" spans="1:6">
       <c r="A96" s="5"/>
       <c r="B96" s="2">
         <v>0</v>
@@ -7150,7 +7260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" ht="51" spans="1:6">
+    <row r="97" ht="50.25" spans="1:6">
       <c r="A97" s="5"/>
       <c r="B97" s="2">
         <v>0</v>
@@ -7168,7 +7278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" ht="25.15" spans="1:6">
       <c r="A98" s="5"/>
       <c r="B98" s="1"/>
       <c r="D98" s="2">
@@ -7181,7 +7291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" ht="51" spans="1:6">
+    <row r="99" ht="50.25" spans="1:6">
       <c r="A99" s="5"/>
       <c r="B99" s="2">
         <v>0</v>
@@ -7196,7 +7306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" ht="25.15" spans="1:6">
       <c r="A100" s="5"/>
       <c r="D100" s="2">
         <v>100</v>
@@ -7208,7 +7318,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" ht="76.5" spans="1:6">
+    <row r="101" ht="75.4" spans="1:6">
       <c r="A101" s="5"/>
       <c r="B101" s="1"/>
       <c r="D101" s="2">
@@ -7221,7 +7331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" ht="25.15" spans="2:6">
       <c r="B102" s="2">
         <v>0</v>
       </c>
@@ -7235,7 +7345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" ht="51" spans="1:6">
+    <row r="103" ht="50.25" spans="1:6">
       <c r="A103" s="5"/>
       <c r="B103" s="2">
         <v>0</v>
@@ -7253,7 +7363,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" ht="25.15" spans="1:6">
       <c r="A104" s="5"/>
       <c r="B104" s="2">
         <v>0</v>
@@ -7271,7 +7381,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" ht="25.15" spans="2:6">
       <c r="B105" s="2">
         <v>0</v>
       </c>
@@ -7288,7 +7398,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" ht="51" spans="3:6">
+    <row r="106" ht="50.25" spans="3:6">
       <c r="C106" s="5" t="s">
         <v>3</v>
       </c>
@@ -7302,7 +7412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" ht="25.15" spans="1:6">
       <c r="A107" s="5"/>
       <c r="B107" s="1"/>
       <c r="D107" s="2">
@@ -7315,7 +7425,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" ht="51" spans="1:6">
+    <row r="108" ht="50.25" spans="1:6">
       <c r="A108" s="5"/>
       <c r="B108" s="1"/>
       <c r="D108" s="2">
@@ -7328,7 +7438,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" ht="51" spans="1:6">
+    <row r="109" ht="50.25" spans="1:6">
       <c r="A109" s="5"/>
       <c r="B109" s="2">
         <v>0</v>
@@ -7343,7 +7453,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" ht="76.5" spans="1:6">
+    <row r="110" ht="75.4" spans="1:6">
       <c r="A110" s="5"/>
       <c r="B110" s="2">
         <v>0</v>
@@ -7358,7 +7468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" ht="51" spans="1:6">
+    <row r="111" ht="50.25" spans="1:6">
       <c r="A111" s="5"/>
       <c r="D111" s="2">
         <v>111</v>
@@ -7370,7 +7480,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" ht="25.15" spans="1:6">
       <c r="A112" s="5"/>
       <c r="B112" s="2">
         <v>0</v>
@@ -7385,7 +7495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" ht="25.15" spans="1:6">
       <c r="A113" s="5"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
@@ -7401,7 +7511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" ht="25.15" spans="1:6">
       <c r="A114" s="5"/>
       <c r="B114" s="2">
         <v>0</v>
@@ -7419,7 +7529,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" ht="25.15" spans="1:6">
       <c r="A115" s="5"/>
       <c r="B115" s="2">
         <v>0</v>
@@ -7437,7 +7547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" ht="25.15" spans="1:6">
       <c r="A116" s="5"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
@@ -7453,7 +7563,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" ht="25.15" spans="1:6">
       <c r="A117" s="5"/>
       <c r="B117" s="2">
         <v>0</v>
@@ -7468,7 +7578,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" ht="51" spans="3:6">
+    <row r="118" ht="50.25" spans="3:6">
       <c r="C118" s="5" t="s">
         <v>3</v>
       </c>
@@ -7482,7 +7592,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" ht="25.15" spans="1:6">
       <c r="A119" s="5"/>
       <c r="B119" s="1"/>
       <c r="C119" s="5" t="s">
@@ -7498,7 +7608,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" ht="25.15" spans="1:6">
       <c r="A120" s="5"/>
       <c r="B120" s="1"/>
       <c r="C120" s="5" t="s">
@@ -7514,7 +7624,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" ht="51" spans="1:6">
+    <row r="121" ht="50.25" spans="1:6">
       <c r="A121" s="5"/>
       <c r="C121" s="5" t="s">
         <v>31</v>
@@ -7529,7 +7639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" ht="25.15" spans="1:6">
       <c r="A122" s="5"/>
       <c r="B122" s="1"/>
       <c r="C122" s="5" t="s">
@@ -7545,7 +7655,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" ht="25.15" spans="1:6">
       <c r="A123" s="5"/>
       <c r="C123" s="5" t="s">
         <v>31</v>
@@ -7560,7 +7670,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" ht="25.15" spans="1:6">
       <c r="A124" s="5"/>
       <c r="B124" s="2">
         <v>0</v>
@@ -7578,7 +7688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" ht="25.15" spans="1:6">
       <c r="A125" s="5"/>
       <c r="B125" s="2">
         <v>0</v>
@@ -7596,7 +7706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" ht="51" spans="1:6">
+    <row r="126" ht="50.25" spans="1:6">
       <c r="A126" s="5"/>
       <c r="C126" s="5" t="s">
         <v>8</v>
@@ -7611,7 +7721,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" ht="25.15" spans="1:6">
       <c r="A127" s="5"/>
       <c r="B127" s="2">
         <v>0</v>
@@ -7629,7 +7739,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" ht="51" spans="1:6">
+    <row r="128" ht="50.25" spans="1:6">
       <c r="A128" s="5"/>
       <c r="C128" s="5" t="s">
         <v>8</v>
@@ -7644,7 +7754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" ht="25.15" spans="1:6">
       <c r="A129" s="5"/>
       <c r="B129" s="2">
         <v>0</v>
@@ -7662,7 +7772,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" ht="51" spans="1:6">
+    <row r="130" ht="50.25" spans="1:6">
       <c r="A130" s="5"/>
       <c r="B130" s="2">
         <v>0</v>
@@ -7680,7 +7790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" ht="25.15" spans="1:6">
       <c r="A131" s="5"/>
       <c r="B131" s="1"/>
       <c r="C131" s="5" t="s">
@@ -7696,7 +7806,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" ht="51" spans="1:6">
+    <row r="132" ht="50.25" spans="1:6">
       <c r="A132" s="5"/>
       <c r="B132" s="2">
         <v>0</v>
@@ -7714,7 +7824,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" ht="50.25" spans="1:6">
       <c r="A133" s="5"/>
       <c r="C133" s="5" t="s">
         <v>8</v>
@@ -7729,7 +7839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" ht="25.15" spans="1:6">
       <c r="A134" s="5"/>
       <c r="B134" s="2">
         <v>0</v>
@@ -7747,7 +7857,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" ht="25.15" spans="1:6">
       <c r="A135" s="5"/>
       <c r="C135" s="5" t="s">
         <v>8</v>
@@ -7762,7 +7872,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" ht="25.15" spans="1:6">
       <c r="A136" s="5"/>
       <c r="C136" s="5" t="s">
         <v>8</v>
@@ -7777,7 +7887,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" ht="25.15" spans="1:6">
       <c r="A137" s="5"/>
       <c r="B137" s="1"/>
       <c r="C137" s="5" t="s">
@@ -7793,7 +7903,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" ht="51" spans="1:6">
+    <row r="138" ht="50.25" spans="1:6">
       <c r="A138" s="5"/>
       <c r="B138" s="2">
         <v>0</v>
@@ -7811,7 +7921,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" ht="51" spans="1:6">
+    <row r="139" ht="50.25" spans="1:6">
       <c r="A139" s="5"/>
       <c r="B139" s="1"/>
       <c r="C139" s="5" t="s">
@@ -7827,7 +7937,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" ht="51" spans="1:6">
+    <row r="140" ht="50.25" spans="1:6">
       <c r="A140" s="5"/>
       <c r="C140" s="5" t="s">
         <v>3</v>
@@ -7842,7 +7952,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="3:6">
+    <row r="141" ht="25.15" spans="3:6">
       <c r="C141" s="5" t="s">
         <v>3</v>
       </c>
@@ -7856,7 +7966,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="142" ht="51" spans="3:6">
+    <row r="142" ht="50.25" spans="3:6">
       <c r="C142" s="5" t="s">
         <v>3</v>
       </c>
@@ -7870,7 +7980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="3:6">
+    <row r="143" ht="25.15" spans="3:6">
       <c r="C143" s="5" t="s">
         <v>3</v>
       </c>
@@ -7884,7 +7994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="3:6">
+    <row r="144" ht="25.15" spans="3:6">
       <c r="C144" s="5" t="s">
         <v>3</v>
       </c>
@@ -7898,7 +8008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="3:6">
+    <row r="145" ht="25.15" spans="3:6">
       <c r="C145" s="5" t="s">
         <v>3</v>
       </c>
@@ -7912,7 +8022,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="3:6">
+    <row r="146" ht="25.15" spans="3:6">
       <c r="C146" s="5" t="s">
         <v>3</v>
       </c>
@@ -7926,7 +8036,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="3:6">
+    <row r="147" ht="50.25" spans="3:6">
       <c r="C147" s="5" t="s">
         <v>3</v>
       </c>
@@ -7940,7 +8050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="3:6">
+    <row r="148" ht="25.15" spans="3:6">
       <c r="C148" s="5" t="s">
         <v>3</v>
       </c>
@@ -7954,7 +8064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" ht="51" spans="3:6">
+    <row r="149" ht="50.25" spans="3:6">
       <c r="C149" s="5" t="s">
         <v>3</v>
       </c>
@@ -7968,7 +8078,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="3:6">
+    <row r="150" ht="25.15" spans="3:6">
       <c r="C150" s="5" t="s">
         <v>3</v>
       </c>
@@ -7982,7 +8092,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="3:6">
+    <row r="151" ht="25.15" spans="3:6">
       <c r="C151" s="5" t="s">
         <v>3</v>
       </c>
@@ -7996,7 +8106,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" ht="51" spans="3:6">
+    <row r="152" ht="50.25" spans="3:6">
       <c r="C152" s="5" t="s">
         <v>3</v>
       </c>
@@ -8010,7 +8120,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" ht="51" spans="3:6">
+    <row r="153" ht="50.25" spans="3:6">
       <c r="C153" s="5" t="s">
         <v>3</v>
       </c>
@@ -8024,7 +8134,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" ht="51" spans="3:6">
+    <row r="154" ht="50.25" spans="3:6">
       <c r="C154" s="5" t="s">
         <v>3</v>
       </c>
@@ -8038,7 +8148,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="155" ht="51" spans="3:6">
+    <row r="155" ht="50.25" spans="3:6">
       <c r="C155" s="5" t="s">
         <v>3</v>
       </c>
@@ -8052,7 +8162,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" ht="51" spans="3:6">
+    <row r="156" ht="50.25" spans="3:6">
       <c r="C156" s="5" t="s">
         <v>3</v>
       </c>
@@ -8066,7 +8176,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="4:6">
+    <row r="157" ht="25.15" spans="4:6">
       <c r="D157" s="2">
         <v>157</v>
       </c>
